--- a/Stock mini publication FL vrac.xlsx
+++ b/Stock mini publication FL vrac.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>EAN</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>COURGETTE BLANCHE VRAC KG</t>
+  </si>
+  <si>
+    <t>TOMATE CERISE MELANGE VRAC KG</t>
   </si>
   <si>
     <t>TOMATE ALLONGEE COEUR VRAC KG</t>
@@ -342,7 +345,7 @@
         <v>432685.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
@@ -542,7 +545,7 @@
         <v>433372.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
@@ -582,7 +585,7 @@
         <v>432736.0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +625,7 @@
         <v>1968272.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +705,7 @@
         <v>433029.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="25">
@@ -722,7 +725,7 @@
         <v>1968998.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -742,7 +745,7 @@
         <v>432725.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="27">
@@ -962,7 +965,7 @@
         <v>5283797.0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="38">
@@ -1187,21 +1190,41 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.523680304352E12</v>
+        <v>3.523680241541E12</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="0" t="n">
+        <v>5376285.0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>5376285.0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>5376285.0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>3.523680304352E12</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>5917033.0</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D50" s="0" t="n">
         <v>5917033.0</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E50" s="0" t="n">
         <v>5917033.0</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F50" s="0" t="n">
         <v>6.0</v>
       </c>
     </row>

--- a/Stock mini publication FL vrac.xlsx
+++ b/Stock mini publication FL vrac.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>EAN</t>
   </si>
@@ -59,9 +59,6 @@
     <t>PECHE PLATE VRAC AU KG</t>
   </si>
   <si>
-    <t>POIRE CONFERENCE VRAC AU KG</t>
-  </si>
-  <si>
     <t>POIRE ROCHAS VRAC AU KG</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>POMME CANADA GRIS GROS VRAC KG</t>
   </si>
   <si>
-    <t>POMME GALA FQC VRAC</t>
-  </si>
-  <si>
     <t>ABRICOT MOYEN VRAC KG</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
   </si>
   <si>
     <t>TOMATE COTELE ROUGE VRAC AU KG</t>
-  </si>
-  <si>
-    <t>FENOUIL VRAC KG</t>
   </si>
   <si>
     <t>CAROTTE VRAC AU KG</t>
@@ -285,7 +276,7 @@
         <v>432828.0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -345,7 +336,7 @@
         <v>432685.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,159 +421,159 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.000000034729E12</v>
+        <v>3.000000034736E12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>433409.0</v>
+        <v>642293.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>433409.0</v>
+        <v>642293.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>433409.0</v>
+        <v>642293.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.000000034736E12</v>
+        <v>3.00000003475E12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>642293.0</v>
+        <v>433414.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>642293.0</v>
+        <v>433414.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>642293.0</v>
+        <v>433414.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.00000003475E12</v>
+        <v>3.000000034842E12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>433414.0</v>
+        <v>624679.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>433414.0</v>
+        <v>624679.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>433414.0</v>
+        <v>624679.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.000000034842E12</v>
+        <v>3.000000035283E12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>624679.0</v>
+        <v>714642.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>624679.0</v>
+        <v>714642.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>624679.0</v>
+        <v>714642.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.000000035283E12</v>
+        <v>3.000000035542E12</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>714642.0</v>
+        <v>433372.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>714642.0</v>
+        <v>433372.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>714642.0</v>
+        <v>433372.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.000000035542E12</v>
+        <v>3.000000038871E12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>433372.0</v>
+        <v>714557.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>433372.0</v>
+        <v>714557.0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>433372.0</v>
+        <v>714557.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>24.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.000000038871E12</v>
+        <v>3.000000039045E12</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>714557.0</v>
+        <v>432736.0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>714557.0</v>
+        <v>432736.0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>714557.0</v>
+        <v>432736.0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.000000039045E12</v>
+        <v>3.000000039151E12</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>432736.0</v>
+        <v>432766.0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>432736.0</v>
+        <v>432766.0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>432736.0</v>
+        <v>432766.0</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.0</v>
@@ -590,239 +581,239 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.000000039151E12</v>
+        <v>3.000000039267E12</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>432766.0</v>
+        <v>1968272.0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>432766.0</v>
+        <v>1968272.0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>432766.0</v>
+        <v>1968272.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.000000039267E12</v>
+        <v>3.000000039281E12</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1968272.0</v>
+        <v>433059.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1968272.0</v>
+        <v>433059.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1968272.0</v>
+        <v>433059.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.000000039281E12</v>
+        <v>3.000000039304E12</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>433059.0</v>
+        <v>433056.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>433059.0</v>
+        <v>433056.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>433059.0</v>
+        <v>433056.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.000000039304E12</v>
+        <v>3.000000040676E12</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>433056.0</v>
+        <v>433018.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>433056.0</v>
+        <v>433018.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>433056.0</v>
+        <v>433018.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.000000040676E12</v>
+        <v>3.000000040799E12</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>433018.0</v>
+        <v>433029.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>433018.0</v>
+        <v>433029.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>433018.0</v>
+        <v>433029.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.000000040799E12</v>
+        <v>3.000000041185E12</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>433029.0</v>
+        <v>1968998.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>433029.0</v>
+        <v>1968998.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>433029.0</v>
+        <v>1968998.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.000000041185E12</v>
+        <v>3.000000041376E12</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1968998.0</v>
+        <v>432725.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1968998.0</v>
+        <v>432725.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1968998.0</v>
+        <v>432725.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.000000041376E12</v>
+        <v>3.000000045725E12</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>432725.0</v>
+        <v>1997062.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>432725.0</v>
+        <v>1997062.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>432725.0</v>
+        <v>1997062.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.000000045725E12</v>
+        <v>3.00000009134E12</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1997062.0</v>
+        <v>433369.0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1997062.0</v>
+        <v>433369.0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1997062.0</v>
+        <v>433369.0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.00000009134E12</v>
+        <v>3.27655224871E12</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>433369.0</v>
+        <v>5283909.0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>433369.0</v>
+        <v>5283909.0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>433369.0</v>
+        <v>5283909.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.27655224871E12</v>
+        <v>3.276552248758E12</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>5283909.0</v>
+        <v>5283939.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>5283909.0</v>
+        <v>5283939.0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>5283909.0</v>
+        <v>5283939.0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.276552248758E12</v>
+        <v>3.276552267216E12</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>5283939.0</v>
+        <v>5284059.0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5283939.0</v>
+        <v>5284059.0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>5283939.0</v>
+        <v>5284059.0</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2.0</v>
@@ -830,19 +821,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.276552249762E12</v>
+        <v>3.276552272555E12</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>5284049.0</v>
+        <v>5283805.0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5284049.0</v>
+        <v>5283805.0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>5284049.0</v>
+        <v>5283805.0</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2.0</v>
@@ -850,39 +841,39 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.276552267216E12</v>
+        <v>3.276552299309E12</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>5284059.0</v>
+        <v>5283952.0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5284059.0</v>
+        <v>5283952.0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5284059.0</v>
+        <v>5283952.0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.276552272555E12</v>
+        <v>3.276552314002E12</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>5283805.0</v>
+        <v>5284267.0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>5283805.0</v>
+        <v>5284267.0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>5283805.0</v>
+        <v>5284267.0</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2.0</v>
@@ -890,119 +881,119 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.276552299309E12</v>
+        <v>3.276552413774E12</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>5283952.0</v>
+        <v>5283791.0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>5283952.0</v>
+        <v>5283791.0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>5283952.0</v>
+        <v>5283791.0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.276552314002E12</v>
+        <v>3.276552413859E12</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>5284267.0</v>
+        <v>5283797.0</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5284267.0</v>
+        <v>5283797.0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5284267.0</v>
+        <v>5283797.0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.276552413774E12</v>
+        <v>3.276552611057E12</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>5283791.0</v>
+        <v>5284293.0</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>5283791.0</v>
+        <v>5284293.0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>5283791.0</v>
+        <v>5284293.0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.276552413859E12</v>
+        <v>3.276555766914E12</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>5283797.0</v>
+        <v>2239454.0</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5283797.0</v>
+        <v>2239454.0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>5283797.0</v>
+        <v>2239454.0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.276552449278E12</v>
+        <v>3.27655585158E12</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>5283885.0</v>
+        <v>2286469.0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5283885.0</v>
+        <v>2286469.0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>5283885.0</v>
+        <v>2286469.0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.276552611057E12</v>
+        <v>3.276556209625E12</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>5284293.0</v>
+        <v>2391455.0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>5284293.0</v>
+        <v>2391455.0</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>5284293.0</v>
+        <v>2391455.0</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2.0</v>
@@ -1010,59 +1001,59 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.276555766914E12</v>
+        <v>3.276556776875E12</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2239454.0</v>
+        <v>2591600.0</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2239454.0</v>
+        <v>2591600.0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>2239454.0</v>
+        <v>2591600.0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.27655585158E12</v>
+        <v>3.276556777056E12</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2286469.0</v>
+        <v>2591611.0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2286469.0</v>
+        <v>2591611.0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>2286469.0</v>
+        <v>2591611.0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.276556209625E12</v>
+        <v>3.276556777131E12</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2391455.0</v>
+        <v>2591640.0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2391455.0</v>
+        <v>2591640.0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>2391455.0</v>
+        <v>2591640.0</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2.0</v>
@@ -1070,39 +1061,39 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.276556776875E12</v>
+        <v>3.276557394894E12</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2591600.0</v>
+        <v>6563607.0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>2591600.0</v>
+        <v>6563607.0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2591600.0</v>
+        <v>6563607.0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.276556777056E12</v>
+        <v>3.276557535907E12</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>2591611.0</v>
+        <v>2858956.0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>2591611.0</v>
+        <v>2858956.0</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>2591611.0</v>
+        <v>2858956.0</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>2.0</v>
@@ -1110,19 +1101,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.276556777131E12</v>
+        <v>3.276558380926E12</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>2591640.0</v>
+        <v>3145504.0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>2591640.0</v>
+        <v>3145504.0</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>2591640.0</v>
+        <v>3145504.0</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>2.0</v>
@@ -1130,19 +1121,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.276557394894E12</v>
+        <v>3.523680241541E12</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>6563607.0</v>
+        <v>5376285.0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>6563607.0</v>
+        <v>5376285.0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>6563607.0</v>
+        <v>5376285.0</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2.0</v>
@@ -1150,81 +1141,21 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.276557535907E12</v>
+        <v>3.523680304352E12</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>2858956.0</v>
+        <v>5917033.0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2858956.0</v>
+        <v>5917033.0</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2858956.0</v>
+        <v>5917033.0</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>3.276558380926E12</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>3145504.0</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>3145504.0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>3145504.0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>3.523680241541E12</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>5376285.0</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>5376285.0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>5376285.0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>3.523680304352E12</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>5917033.0</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>5917033.0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>5917033.0</v>
-      </c>
-      <c r="F50" s="0" t="n">
         <v>6.0</v>
       </c>
     </row>
